--- a/nba.xlsx
+++ b/nba.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,12 +452,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>NBA情報!!!
 NBA全球団の直近ドラフト1位指名選手…一時代を築いた選手やハズレ指名も？
 記事↓↓↓
 https://basketballking.jp/news/world/nba/20220704/381464.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+最恐デュオが復活？　レブロンがアービングとレイカーズでの共演を熱望
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381672.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+現地メディアが選定した未契約FAランキングトップ10…エイトンやブリッジズらが上位に
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381494.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+ネッツへトレード要求と報じられたデュラントの争奪戦に王者ウォリアーズも参戦か？
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381537.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+ベテランのドラギッチはブルズへ／2022年FA戦線3、4日目に契約合意が報じられた選手一覧
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381374.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+トレード要求と報じられたケビン・デュラント…本人が望む移籍先のシナリオとは？
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220703/381372.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NBA情報!!!
+町田瑠唯、今季最短3分の出場…ミスティックスは延長の末に敗戦
+記事↓↓↓
+https://basketballking.jp/news/world/wnba/20220704/381637.html?cx_cat=page1</t>
         </is>
       </c>
     </row>

--- a/nba.xlsx
+++ b/nba.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,12 +512,52 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>NBA情報!!!
 町田瑠唯、今季最短3分の出場…ミスティックスは延長の末に敗戦
 記事↓↓↓
 https://basketballking.jp/news/world/wnba/20220704/381637.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+NBA全球団の直近ドラフト1位指名選手…一時代を築いた選手やハズレ指名も？
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381464.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+グリズリーズのジャレン・ジャクソンJr.が右足を疲労骨折…4〜6カ月程度離脱へ
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220705/381727.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+2023年のドラフト1位候補、ビクター・ウェンバンヤマがフランスのチームと2年契約を締結
+記事↓↓↓
+https://basketballking.jp/news/world/worldother/20220705/381734.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+ボール一家の次男・リアンジェロ、今年もホーネッツでサマーリーグに出場
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220705/381739.html?cx_cat=page1</t>
         </is>
       </c>
     </row>

--- a/nba.xlsx
+++ b/nba.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,12 +552,72 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>バスケ情報!!!
 ボール一家の次男・リアンジェロ、今年もホーネッツでサマーリーグに出場
 記事↓↓↓
 https://basketballking.jp/news/world/nba/20220705/381739.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+最恐デュオが復活？　レブロンがアービングとレイカーズでの共演を熱望
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381672.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+町田瑠唯、今季最短3分の出場…ミスティックスは延長の末に敗戦
+記事↓↓↓
+https://basketballking.jp/news/world/wnba/20220704/381637.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+U17W杯で日本が2連敗…川島悠翔が得点をけん引するもスペインに49点差の大敗
+記事↓↓↓
+https://basketballking.jp/news/japan/mnational/20220704/381545.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+現地メディアが選定した未契約FAランキングトップ10…エイトンやブリッジズらが上位に
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381494.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+ネッツへトレード要求と報じられたデュラントの争奪戦に王者ウォリアーズも参戦か？
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381537.html?cx_cat=page1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>バスケ情報!!!
+ベテランのドラギッチはブルズへ／2022年FA戦線3、4日目に契約合意が報じられた選手一覧
+記事↓↓↓
+https://basketballking.jp/news/world/nba/20220704/381374.html?cx_cat=page1</t>
         </is>
       </c>
     </row>
